--- a/data/CerradoBoaVentura/Cerrado.xlsx
+++ b/data/CerradoBoaVentura/Cerrado.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18975" windowHeight="9915" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="19160" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$F$970</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Rearranged!$A$1:$E$969</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +229,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -523,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -566,6 +587,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -576,7 +603,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -605,11 +632,17 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -909,22 +942,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F969"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21274,18 +21307,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -37759,12 +37798,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E969">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A1:E969"/>
   <sortState ref="A2:E2286">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>